--- a/20160323-snowtow/builds/development/data/maindata.xlsx
+++ b/20160323-snowtow/builds/development/data/maindata.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="snowtow2016" sheetId="1" r:id="rId1"/>
+    <sheet name="snowtow2015" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6944" uniqueCount="1705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6950" uniqueCount="1711">
   <si>
     <t>id</t>
   </si>
@@ -5135,13 +5135,31 @@
   </si>
   <si>
     <t>Source: City of Minneapolis</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>City of Minneapolis</t>
+  </si>
+  <si>
+    <t>Locations of towed vehicles in Minneapolis, 2015</t>
+  </si>
+  <si>
+    <t>snowtow2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5149,6 +5167,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -5172,9 +5196,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -55842,22 +55867,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1704</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1708</v>
       </c>
     </row>
   </sheetData>

--- a/20160323-snowtow/builds/development/data/maindata.xlsx
+++ b/20160323-snowtow/builds/development/data/maindata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="snowtow2015" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6950" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6969" uniqueCount="1720">
   <si>
     <t>id</t>
   </si>
@@ -5153,13 +5154,40 @@
   </si>
   <si>
     <t>snowtow2015</t>
+  </si>
+  <si>
+    <t>Incident ID</t>
+  </si>
+  <si>
+    <t>X coordinate</t>
+  </si>
+  <si>
+    <t>Y coordinate</t>
+  </si>
+  <si>
+    <t>Timestamp when towing request was made</t>
+  </si>
+  <si>
+    <t>Location where vehicle was towed from</t>
+  </si>
+  <si>
+    <t>City (Minneapolis)</t>
+  </si>
+  <si>
+    <t>Which day of snow emergency tow occurred (Day 1, Day 2 or Day 3)</t>
+  </si>
+  <si>
+    <t>Latitude coordinate</t>
+  </si>
+  <si>
+    <t>Longitude coordinate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5173,6 +5201,18 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -5193,15 +5233,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5535,7 +5583,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -55857,6 +55905,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -55869,8 +55918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -55913,6 +55962,104 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
